--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,607 +425,1084 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="R2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>B0DFHPZBGM</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
         <v>13</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-20</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>B0DFHPZBGM</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
         <v>14</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="E13" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-22</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-20</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>B0DFHPZBGM</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-21</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-20</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>B0DFHPZBGM</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="C17" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="D17" t="n">
         <v>12</v>
       </c>
-      <c r="G5" t="n">
-        <v>17</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="E17" t="n">
+        <v>19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-19</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>17</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4.800000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>13</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>18</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>13</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>22</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>20</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>5.100000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13</v>
-      </c>
-      <c r="G15" t="n">
-        <v>21</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="R17" t="n">
         <v/>
       </c>
     </row>
@@ -1152,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -531,28 +531,28 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="n">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="H2" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="I2" t="n">
-        <v>-100</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="K2" t="n">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="L2" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="M2" t="n">
-        <v>-100</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -593,28 +593,28 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="n">
-        <v>-100</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="I3" t="n">
-        <v>-100</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="J3" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="K3" t="n">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="L3" t="n">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="M3" t="n">
-        <v>-100</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -655,28 +655,28 @@
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="I4" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="J4" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="K4" t="n">
-        <v>-100</v>
+        <v>-40</v>
       </c>
       <c r="L4" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="M4" t="n">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
@@ -717,28 +717,28 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="G5" t="n">
-        <v>-100</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H5" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="I5" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="J5" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="K5" t="n">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="L5" t="n">
-        <v>-17</v>
+        <v>-11</v>
       </c>
       <c r="M5" t="n">
-        <v>-100</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -779,28 +779,28 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="I6" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="J6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-45.45454545454545</v>
+      </c>
+      <c r="L6" t="n">
         <v>-11</v>
       </c>
-      <c r="K6" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-17</v>
-      </c>
       <c r="M6" t="n">
-        <v>-100</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -841,28 +841,28 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>-100</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H7" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="I7" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="J7" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-50</v>
+      </c>
+      <c r="L7" t="n">
         <v>-12</v>
       </c>
-      <c r="K7" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-18</v>
-      </c>
       <c r="M7" t="n">
-        <v>-100</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -903,28 +903,28 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="J8" t="n">
         <v>-7</v>
       </c>
-      <c r="G8" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>-53.84615384615385</v>
+      </c>
+      <c r="L8" t="n">
         <v>-13</v>
       </c>
-      <c r="K8" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-19</v>
-      </c>
       <c r="M8" t="n">
-        <v>-100</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -965,28 +965,28 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="G9" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="H9" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="I9" t="n">
-        <v>-100</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="K9" t="n">
-        <v>-100</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L9" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="M9" t="n">
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
@@ -1027,28 +1027,28 @@
         <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>-100</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H10" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="I10" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="J10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-50</v>
+      </c>
+      <c r="L10" t="n">
         <v>-12</v>
       </c>
-      <c r="K10" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-18</v>
-      </c>
       <c r="M10" t="n">
-        <v>-100</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
         <v>7</v>
@@ -1089,28 +1089,28 @@
         <v>20</v>
       </c>
       <c r="F11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="J11" t="n">
         <v>-7</v>
       </c>
-      <c r="G11" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-13</v>
-      </c>
       <c r="K11" t="n">
-        <v>-100</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L11" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="M11" t="n">
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -1151,28 +1151,28 @@
         <v>20</v>
       </c>
       <c r="F12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="J12" t="n">
         <v>-7</v>
       </c>
-      <c r="G12" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-13</v>
-      </c>
       <c r="K12" t="n">
-        <v>-100</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L12" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="M12" t="n">
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -1213,28 +1213,28 @@
         <v>22</v>
       </c>
       <c r="F13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="J13" t="n">
         <v>-8</v>
       </c>
-      <c r="G13" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-14</v>
-      </c>
       <c r="K13" t="n">
-        <v>-100</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L13" t="n">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="M13" t="n">
-        <v>-100</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
         <v>8</v>
@@ -1275,28 +1275,28 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="G14" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="H14" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="I14" t="n">
-        <v>-100</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="K14" t="n">
-        <v>-100</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L14" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="M14" t="n">
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
@@ -1337,28 +1337,28 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="H15" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="I15" t="n">
-        <v>-100</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="K15" t="n">
-        <v>-100</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L15" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="M15" t="n">
-        <v>-100</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -1399,28 +1399,28 @@
         <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>-100</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H16" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="I16" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="J16" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="K16" t="n">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="L16" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="M16" t="n">
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
         <v>7</v>
@@ -1461,28 +1461,28 @@
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="G17" t="n">
-        <v>-100</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H17" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="I17" t="n">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="J17" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="K17" t="n">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="L17" t="n">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="M17" t="n">
-        <v>-100</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
       <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
       <c r="G2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>13</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
       <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>14</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="n">
-        <v>8</v>
-      </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
         <v>15</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>10</v>
       </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" t="n">
         <v>15</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>11</v>
-      </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
         <v>12</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>17</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
-        <v>11</v>
-      </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>18</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
-        <v>11</v>
-      </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
         <v>17</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>11</v>
-      </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
         <v>17</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
         <v>12</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>18</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
       <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
         <v>12</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>19</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>11</v>
-      </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
         <v>12</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>18</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
-        <v>11</v>
-      </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
         <v>18</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="D16" t="n">
-        <v>11</v>
-      </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
         <v>12</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>18</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>3</v>
       </c>
-      <c r="D17" t="n">
-        <v>11</v>
-      </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
+        <v>11</v>
+      </c>
+      <c r="H17" t="n">
         <v>17</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650 UD AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-01 to 2024-12-29</t>
+          <t>2024-09-01 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19 units</t>
+          <t>26 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,16 +574,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,16 +614,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,16 +654,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,16 +694,16 @@
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
         <v>11</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12</v>
-      </c>
-      <c r="H8" t="n">
-        <v>17</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
         <v>11</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11</v>
-      </c>
-      <c r="H17" t="n">
-        <v>17</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-01 to 2025-01-05</t>
+          <t>2024-09-01 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26 units</t>
+          <t>27 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
@@ -1094,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -510,8 +510,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -550,8 +550,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -590,8 +590,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -630,8 +630,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -670,8 +670,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -710,8 +710,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -750,8 +750,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -790,8 +790,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -830,8 +830,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -870,8 +870,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -910,8 +910,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -950,8 +950,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -990,8 +990,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -1030,8 +1030,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1070,8 +1070,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1110,8 +1110,8 @@
           <t>B650 UD AX</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-01 to 2025-01-12</t>
+          <t>2024-09-01 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27 units</t>
+          <t>39 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>39 units</t>
+          <t>27 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
+++ b/Sufficient data/forecast_summary_B0DFHPZBGM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -540,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -580,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,16 +614,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,16 +654,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,16 +694,16 @@
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
         <v>5</v>
       </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
         <v>5</v>
       </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1014,16 +1014,16 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1054,16 +1054,16 @@
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1094,16 +1094,16 @@
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-01 to 2025-01-19</t>
+          <t>2024-09-01 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27 units</t>
+          <t>35 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
